--- a/qualidade_entregaveis.xlsx
+++ b/qualidade_entregaveis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Entregáveis</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>Ótimo</t>
+  </si>
+  <si>
+    <t>Indicadores de Qualidade - Entrega 2</t>
+  </si>
+  <si>
+    <t>Indicadores de Qualidade - Entrega 3</t>
   </si>
 </sst>
 </file>
@@ -160,9 +166,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -200,7 +206,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -272,7 +278,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -446,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection sqref="A1:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,39 +464,51 @@
     <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -498,7 +516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>0</v>
       </c>
@@ -506,7 +524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -514,7 +532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>2</v>
       </c>
@@ -522,7 +540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>3</v>
       </c>
@@ -530,7 +548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>4</v>
       </c>
@@ -538,13 +556,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
